--- a/report/メッセージ一覧.xlsx
+++ b/report/メッセージ一覧.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="メッセージ一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
+    <sheet name="メッセージ一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">メッセージ一覧!$A$1:$AG$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">メッセージ一覧!$A$1:$AG$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>取り戻す確認</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,12 +229,47 @@
     <t>IME0005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +306,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -595,6 +639,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -602,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -743,6 +811,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,9 +1133,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="22"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="28"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="40"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="40"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="28"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="28"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="40"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="28"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="28"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="28"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="28"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="28"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="23">
+        <v>13</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="28"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="28"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="28"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="28"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="28"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="28"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="28"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="28"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="41"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="46"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/report/メッセージ一覧.xlsx
+++ b/report/メッセージ一覧.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7260" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
     <sheet name="メッセージ一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">メッセージ一覧!$A$1:$AG$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">メッセージ一覧!$A$1:$AG$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,14 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>取り戻す確認</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>メールチェック</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>同様チェック</t>
@@ -47,10 +43,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アカウント登録を成功しました。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -111,27 +103,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アカウントIDが既に登録されています。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用できないパスワードです。
-パスワードのヒントを確認してください。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>パスワード再入力欄とパスワードが違います。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正しいメールアドレスを入力してください。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ログイン画面に戻りますか？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>メッセージ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -173,14 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>・大英語、小英語、数字、特殊文字のうち、3種類以上を使用すること</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>・6桁以上、10桁以下であること</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IMI0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,19 +152,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IME0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IME0002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IME0003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IME0004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -222,10 +173,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>情報不一致です。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IME0005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,6 +209,187 @@
   </si>
   <si>
     <t>修正内容</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アカウント登録を成功しました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IME0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必須チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ﾋｯｽ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当項目は必須項目です。({0})</t>
+    <rPh sb="0" eb="2">
+      <t>ｶﾞｲﾄｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｺｳﾓｸ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ﾋｯｽ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｺｳﾓｸ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情報不一致です。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログイン画面に戻りますか？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワード再入力欄とパスワードが違います。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用できないパスワードです。\nパスワードのヒントを確認してください。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>アカウントIDが既に登録されています。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太　寅熊</t>
+    <rPh sb="0" eb="1">
+      <t>ﾌﾄｼ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ﾄﾗｸﾏ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>メッセージ一覧</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IME0004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IME0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>・大英語、小英語、数字、特殊文字のうち、3種類以上を使用すること\n・6桁以上、20桁以下であること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大桁チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ｻｲﾀﾞｲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ｹﾀ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小桁チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ｻｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ｹﾀ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IME0007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当項目の最大桁に未満足です。({0}、最大桁：{1})</t>
+    <rPh sb="0" eb="2">
+      <t>ｶﾞｲﾄｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｺｳﾓｸ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ｻｲﾀﾞｲ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ｹﾀ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ﾐ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ﾏﾝｿﾞｸ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ｻｲﾀﾞｲｹﾀ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当項目の最小桁に未満足です。({0}、最小桁：{1})</t>
+    <rPh sb="0" eb="2">
+      <t>ｶﾞｲﾄｳ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｺｳﾓｸ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ｻｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ｹﾀ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ﾐ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ﾏﾝｿﾞｸ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ｻｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ｹﾀ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IME0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IME0004の内容変更、IMI0001とIME0002に「\n」追記、IME0006～7追記</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイキ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -670,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -771,9 +899,6 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,6 +952,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,7 +1279,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -1149,24 +1292,24 @@
     <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="1:28">
       <c r="A2" s="19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1191,110 +1334,118 @@
       <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
+      <c r="B3" s="47">
+        <v>44639</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
       <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="35">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="39"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="51"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -1319,65 +1470,65 @@
       <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="40"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="39"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="23">
@@ -1387,10 +1538,10 @@
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="51"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="24"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -1412,17 +1563,17 @@
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="35">
+      <c r="A10" s="34">
         <v>8</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -1451,10 +1602,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
@@ -1476,17 +1627,17 @@
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>10</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="51"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -1515,10 +1666,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="51"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="24"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
@@ -1540,17 +1691,17 @@
       <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>12</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -1579,10 +1730,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="24"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
@@ -1604,17 +1755,17 @@
       <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>14</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="51"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
@@ -1643,10 +1794,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="51"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -1668,17 +1819,17 @@
       <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="35">
+      <c r="A18" s="34">
         <v>16</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="51"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -1707,10 +1858,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="51"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="50"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -1739,10 +1890,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="51"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="50"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -1764,17 +1915,17 @@
       <c r="AB20" s="28"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="35">
+      <c r="A21" s="34">
         <v>19</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -1803,10 +1954,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="51"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
@@ -1833,10 +1984,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="51"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -1858,63 +2009,63 @@
       <c r="AB23" s="28"/>
     </row>
     <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="46"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="45"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -1931,23 +2082,24 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="18" width="3.75" style="10"/>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="3.75" style="10"/>
     <col min="19" max="19" width="18.125" style="10" customWidth="1"/>
     <col min="20" max="16384" width="3.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -1960,11 +2112,11 @@
       <c r="O1" s="5"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -1972,11 +2124,11 @@
       <c r="W1" s="5"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -1984,7 +2136,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="9"/>
     </row>
-    <row r="2" spans="1:32" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2002,7 +2154,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="15"/>
@@ -2012,40 +2164,42 @@
       <c r="W2" s="16"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="15"/>
+      <c r="AA2" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:32" ht="15" customHeight="1">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:32" ht="18.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2067,51 +2221,51 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1">
       <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
-      <c r="M5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="28"/>
-    </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1">
+      <c r="M5" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="54"/>
+    </row>
+    <row r="6" spans="1:32" ht="18.75" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -2124,250 +2278,248 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="34"/>
-    </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1">
-      <c r="A7" s="35">
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="57"/>
+    </row>
+    <row r="7" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A7" s="34">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="39"/>
+    </row>
+    <row r="8" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A8" s="34">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39"/>
+    </row>
+    <row r="9" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A9" s="34">
+        <v>4</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="39"/>
+    </row>
+    <row r="10" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A10" s="34">
+        <v>5</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="40"/>
-    </row>
-    <row r="8" spans="1:32" ht="15" customHeight="1">
-      <c r="A8" s="35">
-        <v>3</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="40"/>
-    </row>
-    <row r="9" spans="1:32" ht="15" customHeight="1">
-      <c r="A9" s="35">
-        <v>4</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="40"/>
-    </row>
-    <row r="10" spans="1:32" ht="15" customHeight="1">
-      <c r="A10" s="35">
-        <v>5</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="40"/>
-    </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39"/>
+    </row>
+    <row r="11" spans="1:32" ht="18.75" customHeight="1">
       <c r="A11" s="23">
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="40"/>
-    </row>
-    <row r="12" spans="1:32" ht="15" customHeight="1">
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="39"/>
+    </row>
+    <row r="12" spans="1:32" ht="18.75" customHeight="1">
       <c r="A12" s="23">
         <v>7</v>
       </c>
@@ -2378,152 +2530,172 @@
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="38" t="s">
-        <v>25</v>
+      <c r="G12" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="40"/>
-    </row>
-    <row r="13" spans="1:32" ht="15" customHeight="1">
+      <c r="M12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="39"/>
+    </row>
+    <row r="13" spans="1:32" ht="18.75" customHeight="1">
       <c r="A13" s="23">
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="40"/>
-    </row>
-    <row r="14" spans="1:32" ht="15" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="39"/>
+    </row>
+    <row r="14" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A14" s="23">
+        <v>9</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="26"/>
+      <c r="I14" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="40"/>
-    </row>
-    <row r="15" spans="1:32" ht="15" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
+      <c r="M14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="39"/>
+    </row>
+    <row r="15" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A15" s="23">
+        <v>10</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="26"/>
+      <c r="I15" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="40"/>
-    </row>
-    <row r="16" spans="1:32" ht="15" customHeight="1">
+      <c r="M15" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="39"/>
+    </row>
+    <row r="16" spans="1:32" ht="18.75" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -2536,30 +2708,30 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="40"/>
-    </row>
-    <row r="17" spans="1:32" ht="15" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="39"/>
+    </row>
+    <row r="17" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -2570,30 +2742,30 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="40"/>
-    </row>
-    <row r="18" spans="1:32" ht="15" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="38"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="39"/>
+    </row>
+    <row r="18" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -2604,28 +2776,28 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="40"/>
-    </row>
-    <row r="19" spans="1:32" ht="15" customHeight="1">
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="39"/>
+    </row>
+    <row r="19" spans="1:32" ht="18.75" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -2638,28 +2810,28 @@
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="40"/>
-    </row>
-    <row r="20" spans="1:32" ht="15" customHeight="1">
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="39"/>
+    </row>
+    <row r="20" spans="1:32" ht="18.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -2672,28 +2844,28 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="40"/>
-    </row>
-    <row r="21" spans="1:32" ht="15" customHeight="1">
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="39"/>
+    </row>
+    <row r="21" spans="1:32" ht="18.75" customHeight="1">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -2706,28 +2878,28 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="40"/>
-    </row>
-    <row r="22" spans="1:32" ht="15" customHeight="1">
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="39"/>
+    </row>
+    <row r="22" spans="1:32" ht="18.75" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -2740,28 +2912,28 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="40"/>
-    </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1">
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="39"/>
+    </row>
+    <row r="23" spans="1:32" ht="18.75" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -2774,28 +2946,28 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="40"/>
-    </row>
-    <row r="24" spans="1:32" ht="15" customHeight="1">
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="39"/>
+    </row>
+    <row r="24" spans="1:32" ht="18.75" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -2808,95 +2980,98 @@
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="40"/>
-    </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="46"/>
-    </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="39"/>
+    </row>
+    <row r="25" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="45"/>
+    </row>
+    <row r="26" spans="1:32" ht="18.75" customHeight="1">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M5:AF6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" verticalDpi="300" r:id="rId1"/>

--- a/report/メッセージ一覧.xlsx
+++ b/report/メッセージ一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8430" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>取り戻す確認</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IME0007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>該当項目の最大桁に未満足です。({0}、最大桁：{1})</t>
     <rPh sb="0" eb="2">
       <t>ｶﾞｲﾄｳ</t>
@@ -391,6 +387,14 @@
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IME0007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IME0008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1278,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1349,7 +1353,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="48"/>
       <c r="J3" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
@@ -2078,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" customHeight="1"/>
@@ -2623,13 +2627,13 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -2667,13 +2671,13 @@
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
@@ -2704,7 +2708,9 @@
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>

--- a/report/メッセージ一覧.xlsx
+++ b/report/メッセージ一覧.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="8436" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
     <sheet name="メッセージ一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">メッセージ一覧!$A$1:$AG$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">メッセージ一覧!$A$1:$AG$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>取り戻す確認</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -394,6 +394,26 @@
   </si>
   <si>
     <t>IME0008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掲示板登録成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMI0003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掲示板登録を成功しました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金哲湖</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IMI0003追加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -401,32 +421,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -440,7 +460,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1036,7 +1056,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,7 +1091,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,19 +1302,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.75" style="10"/>
+    <col min="2" max="2" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.69921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
-    <row r="2" spans="1:28">
+    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1354,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="22"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -1374,19 +1394,27 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="28"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="47">
+        <v>44675</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="49"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="35" t="s">
+        <v>58</v>
+      </c>
       <c r="H4" s="36"/>
       <c r="I4" s="48"/>
-      <c r="J4" s="36"/>
+      <c r="J4" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
@@ -1406,7 +1434,7 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="39"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="23">
         <v>3</v>
       </c>
@@ -1438,7 +1466,7 @@
       <c r="AA5" s="36"/>
       <c r="AB5" s="39"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -1470,7 +1498,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="28"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -1502,7 +1530,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="28"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
         <v>6</v>
       </c>
@@ -1534,7 +1562,7 @@
       <c r="AA8" s="36"/>
       <c r="AB8" s="39"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -1566,7 +1594,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="28"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
         <v>8</v>
       </c>
@@ -1598,7 +1626,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="28"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -1630,7 +1658,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="28"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="34">
         <v>10</v>
       </c>
@@ -1662,7 +1690,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="28"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -1694,7 +1722,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="28"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="34">
         <v>12</v>
       </c>
@@ -1726,7 +1754,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="28"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -1758,7 +1786,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="28"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="34">
         <v>14</v>
       </c>
@@ -1790,7 +1818,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="28"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -1822,7 +1850,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="28"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="34">
         <v>16</v>
       </c>
@@ -1854,7 +1882,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="28"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -1886,7 +1914,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="28"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -1918,7 +1946,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="28"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="34">
         <v>19</v>
       </c>
@@ -1950,7 +1978,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="28"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -1982,7 +2010,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="28"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
@@ -2012,7 +2040,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="28"/>
     </row>
-    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="40"/>
       <c r="B24" s="43"/>
       <c r="C24" s="41"/>
@@ -2042,7 +2070,7 @@
       <c r="AA24" s="42"/>
       <c r="AB24" s="45"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2080,21 +2108,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="3.75" style="10"/>
-    <col min="19" max="19" width="18.125" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="3.75" style="10"/>
+    <col min="2" max="18" width="3.69921875" style="10"/>
+    <col min="19" max="19" width="18.09765625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="3.69921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" customHeight="1">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2140,7 +2168,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="9"/>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2180,8 +2208,8 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +2253,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -2269,7 +2297,7 @@
       <c r="AE5" s="53"/>
       <c r="AF5" s="54"/>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -2303,7 +2331,7 @@
       <c r="AE6" s="56"/>
       <c r="AF6" s="57"/>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="34">
         <v>2</v>
       </c>
@@ -2347,29 +2375,29 @@
       <c r="AE7" s="36"/>
       <c r="AF7" s="39"/>
     </row>
-    <row r="8" spans="1:32" ht="18.75" customHeight="1">
+    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="37" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="35" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
@@ -2391,12 +2419,12 @@
       <c r="AE8" s="36"/>
       <c r="AF8" s="39"/>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="34">
         <v>4</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -2407,13 +2435,13 @@
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="37" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
@@ -2435,12 +2463,12 @@
       <c r="AE9" s="36"/>
       <c r="AF9" s="39"/>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>1</v>
+      <c r="B10" s="35" t="s">
+        <v>2</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -2451,13 +2479,13 @@
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="37" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
@@ -2479,12 +2507,12 @@
       <c r="AE10" s="36"/>
       <c r="AF10" s="39"/>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1">
-      <c r="A11" s="23">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="34">
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -2495,13 +2523,13 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="37" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
@@ -2523,29 +2551,29 @@
       <c r="AE11" s="36"/>
       <c r="AF11" s="39"/>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>7</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
@@ -2567,29 +2595,29 @@
       <c r="AE12" s="36"/>
       <c r="AF12" s="39"/>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23">
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
@@ -2611,29 +2639,29 @@
       <c r="AE13" s="36"/>
       <c r="AF13" s="39"/>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23">
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="35" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -2655,12 +2683,12 @@
       <c r="AE14" s="36"/>
       <c r="AF14" s="39"/>
     </row>
-    <row r="15" spans="1:32" ht="18.75" customHeight="1">
+    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23">
         <v>10</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2671,13 +2699,13 @@
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
@@ -2699,22 +2727,30 @@
       <c r="AE15" s="36"/>
       <c r="AF15" s="39"/>
     </row>
-    <row r="16" spans="1:32" ht="18.75" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23">
+        <v>11</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="27"/>
-      <c r="I16" s="26" t="s">
-        <v>54</v>
+      <c r="I16" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="35"/>
+      <c r="M16" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -2735,16 +2771,18 @@
       <c r="AE16" s="36"/>
       <c r="AF16" s="39"/>
     </row>
-    <row r="17" spans="1:32" ht="18.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="37"/>
+    <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
@@ -2769,7 +2807,7 @@
       <c r="AE17" s="36"/>
       <c r="AF17" s="39"/>
     </row>
-    <row r="18" spans="1:32" ht="18.75" customHeight="1">
+    <row r="18" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34"/>
       <c r="B18" s="37"/>
       <c r="C18" s="25"/>
@@ -2803,9 +2841,9 @@
       <c r="AE18" s="36"/>
       <c r="AF18" s="39"/>
     </row>
-    <row r="19" spans="1:32" ht="18.75" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
+    <row r="19" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -2837,7 +2875,7 @@
       <c r="AE19" s="36"/>
       <c r="AF19" s="39"/>
     </row>
-    <row r="20" spans="1:32" ht="18.75" customHeight="1">
+    <row r="20" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -2871,7 +2909,7 @@
       <c r="AE20" s="36"/>
       <c r="AF20" s="39"/>
     </row>
-    <row r="21" spans="1:32" ht="18.75" customHeight="1">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -2905,7 +2943,7 @@
       <c r="AE21" s="36"/>
       <c r="AF21" s="39"/>
     </row>
-    <row r="22" spans="1:32" ht="18.75" customHeight="1">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -2939,7 +2977,7 @@
       <c r="AE22" s="36"/>
       <c r="AF22" s="39"/>
     </row>
-    <row r="23" spans="1:32" ht="18.75" customHeight="1">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -2973,7 +3011,7 @@
       <c r="AE23" s="36"/>
       <c r="AF23" s="39"/>
     </row>
-    <row r="24" spans="1:32" ht="18.75" customHeight="1">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -3007,72 +3045,106 @@
       <c r="AE24" s="36"/>
       <c r="AF24" s="39"/>
     </row>
-    <row r="25" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="45"/>
-    </row>
-    <row r="26" spans="1:32" ht="18.75" customHeight="1">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
+    <row r="25" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="39"/>
+    </row>
+    <row r="26" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="45"/>
+    </row>
+    <row r="27" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/report/メッセージ一覧.xlsx
+++ b/report/メッセージ一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8436" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="8436" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>取り戻す確認</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -390,10 +390,6 @@
   </si>
   <si>
     <t>IME0007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IME0008</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1302,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1408,12 +1404,12 @@
       <c r="E4" s="36"/>
       <c r="F4" s="49"/>
       <c r="G4" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="48"/>
       <c r="J4" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
@@ -2110,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2380,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -2391,13 +2387,13 @@
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
@@ -2780,9 +2776,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="26" t="s">
-        <v>54</v>
-      </c>
+      <c r="I17" s="26"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>

--- a/report/メッセージ一覧.xlsx
+++ b/report/メッセージ一覧.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8436" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="9600" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
-    <sheet name="メッセージ一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="メッセージ一覧 (info)" sheetId="2" r:id="rId2"/>
+    <sheet name="メッセージ一覧 (error)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">メッセージ一覧!$A$1:$AG$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'メッセージ一覧 (error)'!$A$1:$AG$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'メッセージ一覧 (info)'!$A$1:$AG$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>取り戻す確認</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,10 +399,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IMI0003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>掲示板登録を成功しました。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -410,6 +408,20 @@
   </si>
   <si>
     <t>IMI0003追加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMI0003→IMI0004、一覧を分割</t>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IMI0004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -417,32 +429,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -456,7 +468,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1052,7 +1064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,7 +1099,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1298,19 +1310,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="10"/>
+    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1362,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="22"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -1390,7 +1402,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="28"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -1404,12 +1416,12 @@
       <c r="E4" s="36"/>
       <c r="F4" s="49"/>
       <c r="G4" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="48"/>
       <c r="J4" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
@@ -1430,19 +1442,27 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="39"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="47">
+        <v>44708</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>42</v>
+      </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="35"/>
+      <c r="G5" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="36"/>
       <c r="I5" s="48"/>
-      <c r="J5" s="36"/>
+      <c r="J5" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
@@ -1462,7 +1482,7 @@
       <c r="AA5" s="36"/>
       <c r="AB5" s="39"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="A6" s="34">
         <v>4</v>
       </c>
@@ -1494,7 +1514,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="28"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="23">
         <v>5</v>
       </c>
@@ -1526,7 +1546,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="28"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="A8" s="34">
         <v>6</v>
       </c>
@@ -1558,7 +1578,7 @@
       <c r="AA8" s="36"/>
       <c r="AB8" s="39"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -1590,7 +1610,7 @@
       <c r="AA9" s="25"/>
       <c r="AB9" s="28"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="A10" s="34">
         <v>8</v>
       </c>
@@ -1622,7 +1642,7 @@
       <c r="AA10" s="25"/>
       <c r="AB10" s="28"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -1654,7 +1674,7 @@
       <c r="AA11" s="25"/>
       <c r="AB11" s="28"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="A12" s="34">
         <v>10</v>
       </c>
@@ -1686,7 +1706,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="28"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -1718,7 +1738,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="28"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="A14" s="34">
         <v>12</v>
       </c>
@@ -1750,7 +1770,7 @@
       <c r="AA14" s="25"/>
       <c r="AB14" s="28"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -1782,7 +1802,7 @@
       <c r="AA15" s="25"/>
       <c r="AB15" s="28"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="A16" s="34">
         <v>14</v>
       </c>
@@ -1814,7 +1834,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="28"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -1846,7 +1866,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="28"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28">
       <c r="A18" s="34">
         <v>16</v>
       </c>
@@ -1878,7 +1898,7 @@
       <c r="AA18" s="25"/>
       <c r="AB18" s="28"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -1910,7 +1930,7 @@
       <c r="AA19" s="25"/>
       <c r="AB19" s="28"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -1942,7 +1962,7 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="28"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28">
       <c r="A21" s="34">
         <v>19</v>
       </c>
@@ -1974,7 +1994,7 @@
       <c r="AA21" s="25"/>
       <c r="AB21" s="28"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -2006,7 +2026,7 @@
       <c r="AA22" s="25"/>
       <c r="AB22" s="28"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28">
       <c r="A23" s="23"/>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
@@ -2036,7 +2056,7 @@
       <c r="AA23" s="25"/>
       <c r="AB23" s="28"/>
     </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
       <c r="A24" s="40"/>
       <c r="B24" s="43"/>
       <c r="C24" s="41"/>
@@ -2066,7 +2086,7 @@
       <c r="AA24" s="42"/>
       <c r="AB24" s="45"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28">
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2106,19 +2126,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="3.69921875" style="10"/>
-    <col min="19" max="19" width="18.09765625" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="3.69921875" style="10"/>
+    <col min="2" max="18" width="3.75" style="10"/>
+    <col min="19" max="19" width="18.125" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="3.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2164,7 +2184,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="9"/>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2204,8 +2224,8 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:32" ht="18.75" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +2269,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="22"/>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -2293,7 +2313,7 @@
       <c r="AE5" s="53"/>
       <c r="AF5" s="54"/>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -2327,7 +2347,7 @@
       <c r="AE6" s="56"/>
       <c r="AF6" s="57"/>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1">
       <c r="A7" s="34">
         <v>2</v>
       </c>
@@ -2371,29 +2391,29 @@
       <c r="AE7" s="36"/>
       <c r="AF7" s="39"/>
     </row>
-    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="18.75" customHeight="1">
       <c r="A8" s="34">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="35" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
@@ -2415,29 +2435,29 @@
       <c r="AE8" s="36"/>
       <c r="AF8" s="39"/>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1">
       <c r="A9" s="34">
         <v>4</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="37" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="35" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
@@ -2459,30 +2479,20 @@
       <c r="AE9" s="36"/>
       <c r="AF9" s="39"/>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34">
-        <v>5</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>2</v>
-      </c>
+    <row r="10" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="G10" s="37"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="37" t="s">
-        <v>45</v>
-      </c>
+      <c r="I10" s="37"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
-      <c r="M10" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="M10" s="35"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
@@ -2503,30 +2513,20 @@
       <c r="AE10" s="36"/>
       <c r="AF10" s="39"/>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34">
-        <v>6</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
-      <c r="G11" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="37"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="37" t="s">
-        <v>23</v>
-      </c>
+      <c r="I11" s="37"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="M11" s="35"/>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
@@ -2547,30 +2547,20 @@
       <c r="AE11" s="36"/>
       <c r="AF11" s="39"/>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23">
-        <v>7</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>34</v>
-      </c>
+    <row r="12" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="G12" s="37"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="I12" s="37"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
-      <c r="M12" s="35" t="s">
-        <v>35</v>
-      </c>
+      <c r="M12" s="35"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
@@ -2591,30 +2581,20 @@
       <c r="AE12" s="36"/>
       <c r="AF12" s="39"/>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23">
-        <v>8</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>0</v>
-      </c>
+    <row r="13" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="37" t="s">
-        <v>18</v>
-      </c>
+      <c r="G13" s="37"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="26" t="s">
-        <v>24</v>
-      </c>
+      <c r="I13" s="26"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
-      <c r="M13" s="35" t="s">
-        <v>37</v>
-      </c>
+      <c r="M13" s="35"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -2635,30 +2615,20 @@
       <c r="AE13" s="36"/>
       <c r="AF13" s="39"/>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23">
-        <v>9</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>25</v>
-      </c>
+    <row r="14" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="G14" s="37"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="I14" s="37"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
-      <c r="M14" s="35" t="s">
-        <v>36</v>
-      </c>
+      <c r="M14" s="35"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -2679,30 +2649,20 @@
       <c r="AE14" s="36"/>
       <c r="AF14" s="39"/>
     </row>
-    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23">
-        <v>10</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>47</v>
-      </c>
+    <row r="15" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="G15" s="37"/>
       <c r="H15" s="27"/>
-      <c r="I15" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="I15" s="37"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
-      <c r="M15" s="35" t="s">
-        <v>49</v>
-      </c>
+      <c r="M15" s="35"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -2723,30 +2683,20 @@
       <c r="AE15" s="36"/>
       <c r="AF15" s="39"/>
     </row>
-    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23">
-        <v>11</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>48</v>
-      </c>
+    <row r="16" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="G16" s="37"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="37" t="s">
-        <v>53</v>
-      </c>
+      <c r="I16" s="37"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="M16" s="35"/>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -2767,7 +2717,7 @@
       <c r="AE16" s="36"/>
       <c r="AF16" s="39"/>
     </row>
-    <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="18.75" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -2801,7 +2751,7 @@
       <c r="AE17" s="36"/>
       <c r="AF17" s="39"/>
     </row>
-    <row r="18" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="18.75" customHeight="1">
       <c r="A18" s="34"/>
       <c r="B18" s="37"/>
       <c r="C18" s="25"/>
@@ -2835,7 +2785,7 @@
       <c r="AE18" s="36"/>
       <c r="AF18" s="39"/>
     </row>
-    <row r="19" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="18.75" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="37"/>
       <c r="C19" s="25"/>
@@ -2869,7 +2819,7 @@
       <c r="AE19" s="36"/>
       <c r="AF19" s="39"/>
     </row>
-    <row r="20" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="18.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -2903,7 +2853,7 @@
       <c r="AE20" s="36"/>
       <c r="AF20" s="39"/>
     </row>
-    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -2937,7 +2887,7 @@
       <c r="AE21" s="36"/>
       <c r="AF21" s="39"/>
     </row>
-    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -2971,7 +2921,7 @@
       <c r="AE22" s="36"/>
       <c r="AF22" s="39"/>
     </row>
-    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -3005,7 +2955,7 @@
       <c r="AE23" s="36"/>
       <c r="AF23" s="39"/>
     </row>
-    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -3039,7 +2989,7 @@
       <c r="AE24" s="36"/>
       <c r="AF24" s="39"/>
     </row>
-    <row r="25" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="18.75" customHeight="1">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -3073,7 +3023,7 @@
       <c r="AE25" s="36"/>
       <c r="AF25" s="39"/>
     </row>
-    <row r="26" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -3107,7 +3057,7 @@
       <c r="AE26" s="42"/>
       <c r="AF26" s="45"/>
     </row>
-    <row r="27" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="18.75" customHeight="1">
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -3148,4 +3098,1009 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="3.75" style="10"/>
+    <col min="19" max="19" width="18.125" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="3.75" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="9"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="22"/>
+    </row>
+    <row r="5" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="39"/>
+    </row>
+    <row r="6" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A6" s="34">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="39"/>
+    </row>
+    <row r="7" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A7" s="34">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="39"/>
+    </row>
+    <row r="8" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A8" s="34">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="39"/>
+    </row>
+    <row r="9" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A9" s="34">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="39"/>
+    </row>
+    <row r="10" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A10" s="34">
+        <v>6</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="39"/>
+    </row>
+    <row r="11" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A11" s="34">
+        <v>7</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="39"/>
+    </row>
+    <row r="12" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="39"/>
+    </row>
+    <row r="13" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="39"/>
+    </row>
+    <row r="14" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="39"/>
+    </row>
+    <row r="15" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="39"/>
+    </row>
+    <row r="16" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="39"/>
+    </row>
+    <row r="17" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="39"/>
+    </row>
+    <row r="18" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="39"/>
+    </row>
+    <row r="19" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="39"/>
+    </row>
+    <row r="20" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="39"/>
+    </row>
+    <row r="21" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="39"/>
+    </row>
+    <row r="22" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="39"/>
+    </row>
+    <row r="23" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="39"/>
+    </row>
+    <row r="24" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="39"/>
+    </row>
+    <row r="25" spans="1:32" ht="18.75" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="39"/>
+    </row>
+    <row r="26" spans="1:32" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="45"/>
+    </row>
+    <row r="27" spans="1:32" ht="18.75" customHeight="1">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>